--- a/_Format/supp_example.xlsx
+++ b/_Format/supp_example.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>範例</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,54 +54,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>flag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>updated_user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>發票抬頭</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>inv_title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>發票地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>_address</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>聯絡人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>contact</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>scname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MTC-MERCURY TRADING</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -155,18 +119,6 @@
   </si>
   <si>
     <t>統編</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>comp_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>supp_remark</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -219,7 +171,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -227,9 +179,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -524,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -545,122 +494,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>30</v>
+      <c r="A1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>12</v>
+      <c r="A2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="1" t="s">
         <v>14</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
